--- a/Data/Transitions/19591962Translation.xlsx
+++ b/Data/Transitions/19591962Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="590">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1703,9 +1703,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3797,7 +3794,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>563</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3808,7 +3805,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4391,7 +4388,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4534,7 +4531,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>563</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4908,7 +4905,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5062,7 +5059,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5271,7 +5268,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5381,7 +5378,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5546,7 +5543,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5579,7 +5576,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5601,7 +5598,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5656,7 +5653,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5777,7 +5774,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5986,7 +5983,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6008,7 +6005,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6019,7 +6016,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6118,7 +6115,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6349,7 +6346,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6745,7 +6742,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7185,7 +7182,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7262,7 +7259,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7482,7 +7479,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7526,7 +7523,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7988,7 +7985,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8010,7 +8007,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8021,7 +8018,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8065,7 +8062,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="539" spans="1:3">
